--- a/resources/experiment 2/metrics/R2/upto time/Neuropatía (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Neuropatía (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9387731715494971</v>
+        <v>0.9880307178679533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9387731503538942</v>
+        <v>0.9885354706119558</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9387731503538942</v>
+        <v>0.8011762619519383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.878138630303714</v>
+        <v>0.986212995291484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8781398596961064</v>
+        <v>0.9868506764944788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8781398596961064</v>
+        <v>0.7869406469453467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7981549280183337</v>
+        <v>0.860458804105096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7981549280183337</v>
+        <v>0.8466266397326364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7981549280183337</v>
+        <v>0.5964040945023409</v>
       </c>
     </row>
   </sheetData>
